--- a/data/outputs/数学期刊(下)_altmetric/62Siberian Mathematical Journal.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/62Siberian Mathematical Journal.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE107"/>
+  <dimension ref="A1:CF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1525,6 +1536,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2031,6 +2048,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2284,6 +2304,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2541,6 +2564,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2798,6 +2824,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3047,6 +3076,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3300,6 +3332,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3557,6 +3592,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3802,6 +3840,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4055,6 +4096,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4312,6 +4356,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4557,6 +4604,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4806,6 +4856,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5055,6 +5108,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5308,6 +5364,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5561,6 +5620,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5806,6 +5868,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6061,6 +6126,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6300,6 +6368,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6553,6 +6624,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6798,6 +6872,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7051,6 +7128,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7300,6 +7380,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7553,6 +7636,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7810,6 +7896,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8067,6 +8156,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8312,6 +8404,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8561,6 +8656,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8814,6 +8912,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9063,6 +9164,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9316,6 +9420,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9573,6 +9680,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9826,6 +9936,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10079,6 +10192,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10328,6 +10444,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10577,6 +10696,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10826,6 +10948,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11075,6 +11200,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11316,6 +11444,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11557,6 +11688,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11802,6 +11936,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12047,6 +12184,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12302,6 +12442,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12545,6 +12688,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12804,6 +12950,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13061,6 +13210,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13310,6 +13462,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13555,6 +13710,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13804,6 +13962,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14049,6 +14210,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14294,6 +14458,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14547,6 +14714,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14794,6 +14964,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15037,6 +15210,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15278,6 +15454,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15515,6 +15694,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15764,6 +15946,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16007,6 +16192,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16250,6 +16438,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16499,6 +16690,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16754,6 +16948,9 @@
         <v>0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16993,6 +17190,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17234,6 +17434,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17481,6 +17684,9 @@
         <v>0</v>
       </c>
       <c r="CE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17720,6 +17926,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17965,6 +18174,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18212,6 +18424,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18455,6 +18670,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18710,6 +18928,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18949,6 +19170,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19186,6 +19410,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19427,6 +19654,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19674,6 +19904,9 @@
         <v>0</v>
       </c>
       <c r="CE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19913,6 +20146,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20160,6 +20396,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20405,6 +20644,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20654,6 +20896,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20911,6 +21156,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21156,6 +21404,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21401,6 +21652,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21654,6 +21908,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21911,6 +22168,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22156,6 +22416,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22417,6 +22680,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22662,6 +22928,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22915,6 +23184,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23164,6 +23436,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23409,6 +23684,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23658,6 +23936,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23905,6 +24186,9 @@
         <v>0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24144,6 +24428,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24385,6 +24672,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24632,6 +24922,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24875,6 +25168,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25116,6 +25412,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25363,6 +25662,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25606,6 +25908,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25843,6 +26148,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26080,6 +26388,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26317,6 +26628,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26564,6 +26878,9 @@
         <v>0</v>
       </c>
       <c r="CE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26807,6 +27124,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27056,6 +27376,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
